--- a/biology/Zoologie/Brevicoryne/Brevicoryne.xlsx
+++ b/biology/Zoologie/Brevicoryne/Brevicoryne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brevicoryne est un genre d'insectes de l'ordre des hémiptères (les hémiptères sont caractérisés par leurs deux paires d'ailes dont l'une, en partie cornée, est transformée en hémiélytre), de la famille des Aphididae (pucerons).
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Brevicoryne barbareae Nevsky, 1929
 Brevicoryne brassicae (Linnaeus, 1758) - puceron cendré du chou
